--- a/data/output/bases-separadas/-11.xlsx
+++ b/data/output/bases-separadas/-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>97552569000100</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>03231841000106</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>18550093000193</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09296866000166</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>59965038000141</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>09663322000195</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>13244303000100</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06927814000152</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>8211550000161</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>02003402005800</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>7026256000117</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02003402003352</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2804480000179</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02003402006378</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>20686007000116</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04680620000170</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>2841907000109</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02003402000922</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>12532358000144</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04035963000181</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>21018603000190</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01669026000190</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>11573139000140</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>03663627000110</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>5200237000130</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07319432000109</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>2853139000103</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>03106506000178</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>8795211000331</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08444497000149</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>25357895000147</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>02450743000199</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17119770000150</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07131324000108</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>15587891000100</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07072402000140</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>67597856000167</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07240255000170</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>3402181000685</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>07549422000160</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>21612044000142</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>02417059000105</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>23489616000173</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01604588000155</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>4090335000107</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05471631000102</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>11050816000146</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>07986449000110</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>4478859000161</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>05529379000145</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>23373000000302</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>01187659000161</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>14413395000169</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>05505903000148</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>63576730000155</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05247505000179</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>12623309000117</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>06281152000196</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>16637947000148</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04372024000122</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>13620215000157</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>02452683000143</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>17368706000103</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04724122000181</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>5406016000112</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04811082000105</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>2934334000168</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09522268000168</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>24487046000145</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>09421906000154</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>18920073000167</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>09487764000128</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>3057383000122</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>02003402006459</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>3717114000145</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>02003402002461</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>23299312000143</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>01286306000119</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>7883221000102</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>02003402007188</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>6974198000190</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>07019967000164</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>23458965000128</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>05297667000111</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>7857655000120</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>06922885000162</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>7249276000157</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>07000073000122</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>7076446000149</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>08911006000122</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>24644494000105</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>08811393000125</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>1541838000155</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03802108000196</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>8692885000149</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02760686000144</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>26159652000167</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>07720059000101</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>25195099000155</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>03639351000135</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>54360623005759</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>07208421000151</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>74557471000301</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>03626709000195</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>12532358000225</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>05319327000144</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>20720771000160</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04342459000124</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>83054478000806</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>03750541000125</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>6087883000286</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>02780213000109</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>17388158000183</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>02666257000455</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>54772017000196</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>05115612000143</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>18149159000138</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>08308418000172</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>59841791000125</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>09262859000143</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>10925800000177</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>06209025000186</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>2777130000160</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>08374804000162</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>24634660000192</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>09215702000167</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>5056852000114</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>05955028000104</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>22534873000117</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>05473496000134</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>1399973000108</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>03483291000104</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>26091303000150</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>05236051000130</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>6993077000196</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>07028887000175</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>26572826000119</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>07222913000100</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>6133924000142</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>07018489000178</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>20092712000195</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>02417059000377</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>15571341000194</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>03270549000275</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>17708302000111</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>05072224000122</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>2028121000177</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>08834188000185</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>23221254000135</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>04593605000194</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>5257866000104</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>06973835000104</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>11416304000150</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>09583466000131</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>9471964000192</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>01111753000137</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>93803948000166</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>03640054000100</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>10297046000178</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>05622093000100</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>9039566000100</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>02449837000148</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>13677272000172</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>09366635000181</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>10881107000140</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>09598373000180</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>57885329000102</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>09368351000124</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>8949785000236</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>07060127000145</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>5390605000150</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>06536845000182</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>20712727000109</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>03546518000113</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>838464000171</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>01031579000112</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>17035797000165</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0886257000192</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>10360371000138</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>09035751000118</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>24177051000151</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0118709000196</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>89082085000108</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>09575928000250</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>8600902000170</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>06939311000105</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>10647979000148</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>04512429000119</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>544473000150</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>09384948000243</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>21043390000157</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>02295361000138</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>12183911000180</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>07371533000129</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>60011343000264</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>01280862000188</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>20882498000170</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>06065895000129</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>18408874000148</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>02742284000117</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
